--- a/import_test/zyrs_test.xlsx
+++ b/import_test/zyrs_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8651DBB-FA78-C040-BB60-3BF5EA9709E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724D458-7FA2-2C4D-A100-66293961A78B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10460" yWindow="7320" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>姓名</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>来访次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行程安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -635,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -655,16 +651,16 @@
     <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="25" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26">
+    <row r="1" spans="1:30" ht="26">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -695,9 +691,8 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:30">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -711,67 +706,67 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>8</v>
@@ -780,112 +775,106 @@
         <v>9</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:30">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="AC3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AD3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/zyrs_test.xlsx
+++ b/import_test/zyrs_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724D458-7FA2-2C4D-A100-66293961A78B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB515B-8464-4971-A33C-3BA265FF7E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="7320" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,31 +634,32 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
+    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -692,7 +693,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -784,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>31</v>
